--- a/Luban/ExcelConfig/Datas/ai.xlsx
+++ b/Luban/ExcelConfig/Datas/ai.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Actor" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,7 +59,7 @@
     <t>behavior.Info</t>
   </si>
   <si>
-    <t>(list#sep=;),behavior.Info</t>
+    <t>(list#sep=;),behavior.Info#sep=,</t>
   </si>
   <si>
     <t>test.Info</t>
@@ -76,7 +89,7 @@
     <t>AI节点`智能释放技能</t>
   </si>
   <si>
-    <t>AI节点`0`-1</t>
+    <t>AI节点,0,-1</t>
   </si>
   <si>
     <t>测试1</t>
@@ -85,7 +98,7 @@
     <t>测试2/;/3;</t>
   </si>
   <si>
-    <t>智能释放技能`0</t>
+    <t>智能释放技能,0</t>
   </si>
   <si>
     <t>怪物AI1</t>
@@ -94,16 +107,16 @@
     <t>AI节点`智能进攻;巡逻/3;</t>
   </si>
   <si>
-    <t>智能进攻`0</t>
-  </si>
-  <si>
-    <t>巡逻`0`3</t>
+    <t>智能进攻,0</t>
+  </si>
+  <si>
+    <t>巡逻,0,3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1056,16 +1069,16 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39" style="2" customWidth="1"/>
     <col min="6" max="6" width="33.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>

--- a/Luban/ExcelConfig/Datas/ai.xlsx
+++ b/Luban/ExcelConfig/Datas/ai.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -38,9 +38,6 @@
     <t>alias</t>
   </si>
   <si>
-    <t>#entry_node</t>
-  </si>
-  <si>
     <t>*nodes</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>behavior.Info</t>
-  </si>
-  <si>
     <t>(list#sep=;),behavior.Info#sep=,</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>玩家自动释放技能AI</t>
   </si>
   <si>
-    <t>AI节点`智能释放技能</t>
-  </si>
-  <si>
     <t>AI节点,0,-1</t>
   </si>
   <si>
@@ -104,13 +95,19 @@
     <t>怪物AI1</t>
   </si>
   <si>
-    <t>AI节点`智能进攻;巡逻/3;</t>
-  </si>
-  <si>
     <t>智能进攻,0</t>
   </si>
   <si>
     <t>巡逻,0,3</t>
+  </si>
+  <si>
+    <t>随从默认AI</t>
+  </si>
+  <si>
+    <t>随从默认智能进攻,0</t>
+  </si>
+  <si>
+    <t>跟随主人,0</t>
   </si>
 </sst>
 </file>
@@ -1062,14 +1059,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8:E16"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1077,17 +1074,16 @@
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="39" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,54 +1096,47 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
       <c r="A4" s="1" t="s">
@@ -1156,83 +1145,98 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>10000</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="2">
         <v>10001</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/ai.xlsx
+++ b/Luban/ExcelConfig/Datas/ai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Actor" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -89,7 +89,7 @@
     <t>测试2/;/3;</t>
   </si>
   <si>
-    <t>智能释放技能,0</t>
+    <t>玩家自动释放技能,0</t>
   </si>
   <si>
     <t>怪物AI1</t>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>跟随主人,0</t>
+  </si>
+  <si>
+    <t>随从哥布林巫医AI</t>
+  </si>
+  <si>
+    <t>随从巫医智能进攻,0</t>
+  </si>
+  <si>
+    <t>游荡跟随主人,0,5</t>
   </si>
 </sst>
 </file>
@@ -1059,17 +1068,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
@@ -1233,6 +1242,27 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
